--- a/tspi/ciclo-1/task1/20105627.xlsx
+++ b/tspi/ciclo-1/task1/20105627.xlsx
@@ -5,29 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="98" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TASK1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="task1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" name="_vtdhe" vbProcedure="false">['file:///home/hecvasro/workspace/pucmm/isc-434-t/ppr/plan.xlsx']totales!$b$#ref!</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>Tarea</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -35,59 +23,30 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>Criterio de Entrada</t>
-  </si>
-  <si>
-    <t>Criterio de Salida</t>
-  </si>
-  <si>
-    <t># de Ingenieros</t>
-  </si>
-  <si>
-    <t>Team Leader</t>
-  </si>
-  <si>
-    <t>Developer Manager</t>
-  </si>
-  <si>
-    <t>Planning Manager</t>
-  </si>
-  <si>
-    <t>Quality/Process Manager</t>
+    <t>Semana</t>
   </si>
   <si>
     <t>Support Manager</t>
   </si>
   <si>
-    <t>Horas Estimadas</t>
-  </si>
-  <si>
-    <t>Porcentaje Individual de Ganancias Estimadas</t>
-  </si>
-  <si>
-    <t>Semana</t>
-  </si>
-  <si>
-    <t>Fecha de Inicio</t>
-  </si>
-  <si>
-    <t>Fecha de Finalización</t>
-  </si>
-  <si>
-    <t>Horas Trabajadas</t>
+    <t>Experimiento GitHub #1.</t>
+  </si>
+  <si>
+    <t>Realizar el lanzamiento del ciclo #1 de TSPi.</t>
+  </si>
+  <si>
+    <t>Definir la estrategía de desarrollo del ciclo #1 de TSPi.</t>
+  </si>
+  <si>
+    <t>Experimiento Ruby on Rails #1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00%" numFmtId="165"/>
-    <numFmt formatCode="MM/DD/YYYY" numFmtId="166"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -180,28 +139,28 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -220,129 +179,105 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="J1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Q7" activeCellId="0" pane="topLeft" sqref="Q7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.63529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="46.5254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="1" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.2313725490196"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.13333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="4" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="17.843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="1023" min="21" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="39.8666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="19.9333333333333"/>
+    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="2">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="n">
+        <f aca="false">(30+40)/60</f>
+        <v>1.16666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="n">
+        <f aca="false">61/60</f>
+        <v>1.01666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="4">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="n">
+        <f aca="false">45/60</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="A5" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>18</v>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="n">
+        <f aca="false">(60+80)/60</f>
+        <v>2.33333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tspi/ciclo-1/task1/20105627.xlsx
+++ b/tspi/ciclo-1/task1/20105627.xlsx
@@ -29,7 +29,7 @@
     <t>Support Manager</t>
   </si>
   <si>
-    <t>Experimiento GitHub #1.</t>
+    <t>Ver video tutorial de GitHub.</t>
   </si>
   <si>
     <t>Realizar el lanzamiento del ciclo #1 de TSPi.</t>
@@ -38,7 +38,7 @@
     <t>Definir la estrategía de desarrollo del ciclo #1 de TSPi.</t>
   </si>
   <si>
-    <t>Experimiento Ruby on Rails #1.</t>
+    <t>Instalar y configurar ruby on rails.</t>
   </si>
 </sst>
 </file>
@@ -182,18 +182,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
